--- a/EHS2019/ExcelGenerator/Template/eHSU0005-SP_Data_File_Template.xlsx
+++ b/EHS2019/ExcelGenerator/Template/eHSU0005-SP_Data_File_Template.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ce5-fs01\ehs$\Development\InternalChangeControl\2019\CRE16-022 (SDIR Remark)\Front-end\ExcelGenerator\Template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="180" yWindow="6285" windowWidth="19170" windowHeight="5520" tabRatio="679"/>
   </bookViews>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>Sub Report ID</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -324,12 +329,18 @@
   </si>
   <si>
     <t>Provide DHC-related Services</t>
+  </si>
+  <si>
+    <t>CRE16-022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To add a new optional field “Remarks” in the eHS(S) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -616,6 +627,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -663,7 +677,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -698,7 +712,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1259,9 +1273,8 @@
     <col min="25" max="26" width="19.28515625" style="5" customWidth="1"/>
     <col min="27" max="28" width="26.7109375" style="5" customWidth="1"/>
     <col min="29" max="74" width="22.7109375" style="5" customWidth="1"/>
-    <col min="75" max="85" width="27.7109375" style="5" customWidth="1"/>
-    <col min="86" max="119" width="20.7109375" style="5" customWidth="1"/>
-    <col min="120" max="16384" width="9.140625" style="5"/>
+    <col min="75" max="108" width="20.7109375" style="5" customWidth="1"/>
+    <col min="109" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75">
@@ -1638,10 +1651,18 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="9"/>
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="9">
+        <v>43921</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5"/>
